--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4008885.487433083</v>
+        <v>4006341.677926002</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.84496163790557</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,13 +716,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.86835121198033</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>28.06212397598317</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>43.57310181702601</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>16.39467431752565</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.67731766039434</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -1032,10 +1032,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
-        <v>108.9393181589249</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.27076883090984</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>25.26341394128577</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>101.7457945895704</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908695</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099034</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>58.15505059264083</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611853</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1436,7 +1436,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337054</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>126.4418041083164</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187867</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V14" t="n">
         <v>327.752258470135</v>
@@ -1673,7 +1673,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>199.5223428560321</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471637</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187867</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V17" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223441</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0270735093618</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187867</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V20" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174123</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
         <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703253</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>140.9357387834172</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833639</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>205.4655738502109</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.2895129765288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>107.317805417867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,13 +3554,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>201.4105577836242</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701344</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>93.62264337260652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>106.5290632934498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>159.1024872545647</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1041.880811280868</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>827.4467551159958</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>573.7617370571245</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>573.7617370571245</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="X2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037681</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.2689750668272</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>141.1068094710485</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>287.8512331313452</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>478.451922227869</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1026.509940232304</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="U3" t="n">
-        <v>1026.509940232304</v>
+        <v>629.9105956742761</v>
       </c>
       <c r="V3" t="n">
-        <v>791.3578320005618</v>
+        <v>629.9105956742761</v>
       </c>
       <c r="W3" t="n">
-        <v>537.1204752723601</v>
+        <v>375.6732389460745</v>
       </c>
       <c r="X3" t="n">
-        <v>329.2689750668272</v>
+        <v>375.6732389460745</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.2689750668272</v>
+        <v>167.9129401811206</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,7 +4492,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1010.842285847413</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>785.373249605427</v>
+        <v>700.5939555987222</v>
       </c>
       <c r="U4" t="n">
-        <v>518.995593038249</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="V4" t="n">
-        <v>264.3111048323622</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7894056603333</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4117490931552</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4117490931552</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931552</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791759</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275113</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603333</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7894056603333</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098647</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413023</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>481.2742972781158</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>481.2742972781158</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2345819660704</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1029.329490883894</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>762.9518343167156</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>508.2673461108287</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>241.8896895436506</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1244.008617055553</v>
+        <v>1136.202892955284</v>
       </c>
       <c r="C8" t="n">
-        <v>1244.008617055553</v>
+        <v>1136.202892955284</v>
       </c>
       <c r="D8" t="n">
-        <v>1244.008617055553</v>
+        <v>777.9371943485338</v>
       </c>
       <c r="E8" t="n">
-        <v>858.2203644573083</v>
+        <v>777.9371943485338</v>
       </c>
       <c r="F8" t="n">
-        <v>447.2344596677007</v>
+        <v>770.9916935993303</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439057</v>
+        <v>2351.810676439055</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439057</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="V8" t="n">
-        <v>2020.747789095486</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="W8" t="n">
-        <v>2020.747789095486</v>
+        <v>1896.268491280486</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.747789095486</v>
+        <v>1522.802733019406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1630.608457119674</v>
+        <v>1522.802733019406</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010768</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199498</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586986</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487294</v>
@@ -4878,55 +4878,55 @@
         <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>482.533039240315</v>
+        <v>559.9063389572706</v>
       </c>
       <c r="L9" t="n">
-        <v>1116.272322425154</v>
+        <v>1116.272322425153</v>
       </c>
       <c r="M9" t="n">
-        <v>1479.338790899455</v>
+        <v>1479.338790899454</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372025</v>
+        <v>1866.423193372023</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359414</v>
+        <v>2198.310003359412</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789039</v>
+        <v>2445.345361789037</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2230.816477685346</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519833</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.0605317171557</v>
+        <v>220.1474381347626</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1243487892488</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892488</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380152</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1336.515802634453</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477363</v>
+        <v>1113.534501108858</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972005</v>
+        <v>824.4161276035004</v>
       </c>
       <c r="V10" t="n">
-        <v>1287.908296625903</v>
+        <v>569.7316393976135</v>
       </c>
       <c r="W10" t="n">
-        <v>998.4911265889428</v>
+        <v>569.7316393976135</v>
       </c>
       <c r="X10" t="n">
-        <v>770.5015756909255</v>
+        <v>341.7420884995962</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.7089965473954</v>
+        <v>220.1474381347626</v>
       </c>
     </row>
     <row r="11">
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,16 +5057,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021787</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703105</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424035</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>376.4492432300676</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>228.5361496476744</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476744</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476744</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278213</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278213</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>408.9258559154854</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330922</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330922</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.425363523663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>961.4835393015913</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.466348583466</v>
+        <v>740.6909601580611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611464</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5555,10 +5555,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876678</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597607</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474249</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474249</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>983.3403484614379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="20">
@@ -5744,49 +5744,49 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
         <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D22" t="n">
-        <v>672.6908673905391</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="E22" t="n">
-        <v>524.777773808146</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="F22" t="n">
-        <v>377.8878263102356</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6066,22 +6066,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.506425581584</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380538</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
         <v>464.5051450557705</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1846595309963</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>943.510265746755</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935558</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>666.6476097656489</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>516.5309703533131</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>368.61787677092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>45.78351343583213</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140413</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.3103888136332</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084419</v>
+        <v>264.4747475094963</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348506</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.074107778517319e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112518578</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.26785128072075</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>17.88310747125615</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187357</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.366239960697</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>101.6825818796753</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.3204386478872</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>24.58839950885167</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823292</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.93987647707735</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.84813034729919</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.29766760034533</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>84.77391660561992</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>73.62417772602132</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776769</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580792</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606934</v>
+        <v>507909.2320606939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101767</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.114244742689309e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662837</v>
+        <v>136854.4547662839</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756543</v>
+        <v>9337.200356756466</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.200356756512</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756499</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756583</v>
+        <v>9337.200356756497</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756597</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,19 +26445,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675661</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675665</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756613</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.20035675661</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675661</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.200356756597</v>
+        <v>9337.200356756588</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567899</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-170637.2806177229</v>
+        <v>-170637.2806177227</v>
       </c>
       <c r="C6" t="n">
-        <v>509450.6999734702</v>
+        <v>509450.6999734704</v>
       </c>
       <c r="D6" t="n">
-        <v>200604.4398642412</v>
+        <v>200604.439864242</v>
       </c>
       <c r="E6" t="n">
-        <v>188777.637448649</v>
+        <v>188742.8995232129</v>
       </c>
       <c r="F6" t="n">
-        <v>696686.8695093424</v>
+        <v>696652.1315839072</v>
       </c>
       <c r="G6" t="n">
-        <v>696686.8695093424</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="H6" t="n">
-        <v>696686.8695093428</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="I6" t="n">
-        <v>696686.8695093424</v>
+        <v>696652.1315839068</v>
       </c>
       <c r="J6" t="n">
-        <v>627687.7150902285</v>
+        <v>627652.9771647922</v>
       </c>
       <c r="K6" t="n">
-        <v>696686.8695093425</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="L6" t="n">
-        <v>601416.6317183247</v>
+        <v>601381.8937928894</v>
       </c>
       <c r="M6" t="n">
-        <v>563968.8938138733</v>
+        <v>563934.1558884374</v>
       </c>
       <c r="N6" t="n">
-        <v>696686.8695093429</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="O6" t="n">
-        <v>696686.8695093425</v>
+        <v>696652.1315839066</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093426</v>
+        <v>696652.1315839068</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.642805928361637e-14</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933048</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788916</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067074</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139.9227315613167</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111.7767292434206</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27509,22 +27509,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>166.7788636088936</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>161.1460624265677</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>269.8639561851518</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>340.1987280813171</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
-        <v>142.7556650019947</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>197.943577048656</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2857458469637</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>149.2995721001153</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164531471</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164529566</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>193.9825927311872</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-4.816119231638021e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,22 +28852,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>-5.059107147259831e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-9.575133503872667e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.286285363935999e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30223,22 +30223,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>1.297740765423818e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30274,22 +30274,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-5.09262390227752e-14</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31674,46 +31674,46 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>574.653538822261</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673323</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241812</v>
       </c>
       <c r="O21" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2268148619681</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>121.2219182534626</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34872,7 +34872,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204533</v>
       </c>
       <c r="Q4" t="n">
         <v>6.56026382749684</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127591</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>372.7720012894911</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085696</v>
+        <v>561.98584188675</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603487</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>432.0572943778166</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531401</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,10 +35978,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408479</v>
       </c>
       <c r="O21" t="n">
-        <v>291.5823913937585</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36288,16 +36288,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>359.6305704175236</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
